--- a/medicine/Enfance/Yves_Thériault/Yves_Thériault.xlsx
+++ b/medicine/Enfance/Yves_Thériault/Yves_Thériault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yves_Th%C3%A9riault</t>
+          <t>Yves_Thériault</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yves Thériault (Québec, 27 novembre 1915 - Rawdon, 20 octobre 1983) est un écrivain québécois. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yves_Th%C3%A9riault</t>
+          <t>Yves_Thériault</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'un milieu modeste, sa famille déménage très tôt à Montréal, où il fait des études à l'école Notre-Dame-de-Grâce et au collège Mont-Saint-Louis. Mais à 15 ans, il est contraint d'abandonner ses études durant sa huitième année. Il exerce ensuite divers métiers : chauffeur de camion, vendeur de fromage et de tracteurs, trappeur. En 1934, à cause d'une maladie pulmonaire, il doit séjourner durant un an et demi au sanatorium du Lac-Édouard. 
 De 1935 à 1940, il est annonceur sur plusieurs stations radiophoniques : CKAC à Montréal, CHNC à New Carlisle en Gaspésie, CHRC à Québec, CHLN à Trois-Rivières, CKCH à Hull, CJBR à Rimouski. Dès 1940, il écrit ses premiers sketches radiophoniques et, sous divers pseudonymes, d'innombrables « romans à dix sous ». 
@@ -521,9 +535,9 @@
 De 1953 à 1955, il adapte le roman Maria Chapdelaine de Louis Hémon en épisodes hebdomadaires pour la station radiophonique CKVL. 
 De descendance montagnaise, il est nommé directeur des affaires culturelles au ministère des Affaires indiennes et du Grand Nord canadien à Ottawa de 1965 à 1967. Il a d'ailleurs écrit plusieurs œuvres portant sur les Autochtones du Québec, dont Agaguk (1958) et Ashini (1960). Agaguk est le roman pour lequel il est surtout connu et est un best-seller international que Jacques Dorfmann adapte au cinéma sous le titre Agaguk (Shadow of the Wolf) en 1992. Le roman connaît deux suites : Tayaout, fils d'Agaguk (1969) et Agoak, l'héritage d'Agaguk (1975).
 Auteur prolifique, Thériault publie en carrière, outre une quarantaine de romans, près de trente ouvrages de littérature d'enfance et de jeunesse, plus de cent contes, récits et nouvelles, plus de cent textes radiophoniques, vingt télé-théâtres et enfin des dizaines d'articles, d'éditoriaux, d'essais et de chroniques publiés dans des revues et journaux.
-Le recueil de nouvelles Oeuvre de chair est frappé d'interdiction dans les cegeps du Québec[1].
-Il est le père de l'écrivaine Marie José Thériault[2] et de Michel Thériault (1942-2000).
-Après son décès en 1983, il est enterré au Cimetière Notre-Dame-des-Neiges, à Montréal[3]. Le fonds d’archives Yves Thériault est conservé au centre d’archives de Montréal de Bibliothèque et Archives nationales du Québec[4].
+Le recueil de nouvelles Oeuvre de chair est frappé d'interdiction dans les cegeps du Québec.
+Il est le père de l'écrivaine Marie José Thériault et de Michel Thériault (1942-2000).
+Après son décès en 1983, il est enterré au Cimetière Notre-Dame-des-Neiges, à Montréal. Le fonds d’archives Yves Thériault est conservé au centre d’archives de Montréal de Bibliothèque et Archives nationales du Québec.
 </t>
         </is>
       </c>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yves_Th%C3%A9riault</t>
+          <t>Yves_Thériault</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,8 +568,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-La Fille laide, Montréal, Beauchemin, 1950 ; réédition, Montréal, l'Actuelle, 1971 ; réédition, Montréal, Les Quinze, coll. « Présence », 1980 ; réédition, Montréal, Les Quinze, coll. « 10/10 », 1981 ; réédition, Typo no 43, 1994 ; réédition, Montréal, Éditions Le dernier havre, 2003
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Fille laide, Montréal, Beauchemin, 1950 ; réédition, Montréal, l'Actuelle, 1971 ; réédition, Montréal, Les Quinze, coll. « Présence », 1980 ; réédition, Montréal, Les Quinze, coll. « 10/10 », 1981 ; réédition, Typo no 43, 1994 ; réédition, Montréal, Éditions Le dernier havre, 2003
 Le Dompteur d'ours, Montréal, Cercle du livre de France, Montréal, 1951 ; réédition, Montréal, Les Éditions de l'Homme, 1965 ; réédition, Montréal, l'Actuelle, 1971 ; réédition, Montréal, Les Quinze, coll. « Présence », 1980 ; réédition, Montréal, Les Quinze, coll. « 10/10 », 1989 ; réédition, Typo no 129, 1998 ; réédition, Montréal, Éditions Le dernier havre, 2005
 Les Vendeurs du temple, Québec, Institut littéraire du Québec, 1951 ; réédition, Montréal, Les Éditions de l'Homme, 1964 ; réédition, Montréal, l'Actuelle, 1973 ; réédition, Montréal, Les Quinze, coll. « Présence », 1980 ; réédition, Montréal, Les Quinze, coll. « 10/10 », 1989 ; réédition, Typo no 99, 1995
 Aaron, Québec, Institut littéraire du Québec, 1954 ; réédition, Paris, Grasset et Québec, Institut littéraire du Québec, 1957 ; Montréal, Les Éditions de l'Homme, 1965 ; réédition, Montréal, l'Actuelle, 1971 ; réédition, Montréal, Les Quinze, coll. « Présence », 1980 ; réédition, Montréal, Les Quinze, coll. « 10/10 », 1981 ; réédition, Typo no 111, 1995 ; réédition, Montréal, Éditions Le dernier havre, 2006 ; aussi publié en anglais (parution automne 2007)
@@ -576,12 +595,80 @@
 Le Dernier Havre, Montréal, l'Actuelle, 1970 ; réédition, Montréal, Les Quinze, coll. « 10/10 », 1982 ; réédition, Typo no 116, 1996
 Agoak, l'héritage d'Agaguk, Montréal, Stanké et Les Quinze, 1975 ; réédition, Montréal, Stanké coll. « 10/10 », 1981 ; réédition, Paris, L'Archipel, 1995 ; réédition, Montréal, Éditions Le dernier havre, 2008 ; aussi publié en anglais
 La Quête de l'ourse, Montréal, Stanké, 1980 ; réédition, Montréal, Éditions Le dernier havre, 2004
-Le Partage de minuit, Montréal, Québécor, coll. « Roman », 1980
-Romans signés Benoît Tessier
-La Fille farouche, Montréal, Éditions PJ no 469, 1957
-La Vampire au crépuscule, Montréal, Éditions PJ, coll. « Mon roman d'amour », no 514, 1958
-Recueils de contes ou de nouvelles
-Contes pour un homme seul (contes), L'Arbre, Montréal, 1944 ; réédition, Montréal, Éditions Hurtubise HMH, coll. « L'Arbre », 1982
+Le Partage de minuit, Montréal, Québécor, coll. « Roman », 1980</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yves_Thériault</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans signés Benoît Tessier</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Fille farouche, Montréal, Éditions PJ no 469, 1957
+La Vampire au crépuscule, Montréal, Éditions PJ, coll. « Mon roman d'amour », no 514, 1958</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yves_Thériault</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de contes ou de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Contes pour un homme seul (contes), L'Arbre, Montréal, 1944 ; réédition, Montréal, Éditions Hurtubise HMH, coll. « L'Arbre », 1982
 Le Vendeur d'étoiles et autres contes, Montréal et Paris, Fides, 1961 ; réédition, Montréal, Fides, coll. « Rêve et vie », 1967 ; réédition, Montréal, BQ, coll. « Littérature », 1995
 La Rose de pierre, Histoires d'amour (nouvelles), Montréal, Éditions du Jour, 1964 ; réédition, Montréal, Libre Expression, 1981
 L'Île introuvable (nouvelles), Montréal, Éditions du Jour, 1968 ; réédition, Montréal, Libre Expression, 1980 ; réédition, Montréal, BQ, coll. « Littérature », 1996
@@ -590,9 +677,43 @@
 L'Étreinte de Vénus (contes policiers), Montréal, Québécor, 1981
 La Femme Anna et autres contes, Montréal, VLB éditeur, 1981 ; réédition, Typo no 130, 1998
 L'Herbe de tendresse (nouvelles), Montréal, VLB éditeur, 1983 ; réédition, Typo no 115, 1996
-Cap à l'amour!, Outremont, VLB, 1990 ; réédition, Typo no 139, 1998
-Littérature d'enfance et de jeunesse
-La Vengeance de la mer, Montréal, Pierre Dior/Les publications du lapin, coll. « du petit livre populaire », 1951
+Cap à l'amour!, Outremont, VLB, 1990 ; réédition, Typo no 139, 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yves_Thériault</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Vengeance de la mer, Montréal, Pierre Dior/Les publications du lapin, coll. « du petit livre populaire », 1951
 La Revanche du Nascopie, Montréal, Éditions Beauchemin, coll. « Aventure et fantaisie », 1959
 Alerte au camp 29, Montréal, Éditions Beauchemin, coll. « Aventure et fantaisie », 1959
 La Loi de l'Apache, Montréal : Éditions Beauchemin, coll. « Les Ailes du Nord », 1960
@@ -619,17 +740,119 @@
 Les aventures d'Ori d'Or, Montréal, Éditions Paulines, coll. « Boisjoli » no 3, 1979
 Popok, le petit Esquimau, Montréal, Éditions Québecor, coll. « Jeunesse », 1980
 L'Or de la felouque, Ville LaSalle, Éditions Hurtubise HMH, coll. « Jeunesse », 1981 ; réédition, Ville LaSalle, Éditions Hurtubise HMH, coll. « Atout » no 1, 1993
-Kuanuten, Montréal, Éditions Paulines, coll. « Jeunesse-Pop » no 43, 1981
-Théâtre
-Aaron, adaptation du roman homonyme en téléthéâtre sur les ondes de Radio-Canada, 23 avril 1958[5]
-Déclin, téléthéâtre présenté dans le cadre d'En première sur les ondes de Radio-Canada, 14 décembre 1958[6]
+Kuanuten, Montréal, Éditions Paulines, coll. « Jeunesse-Pop » no 43, 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yves_Thériault</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Aaron, adaptation du roman homonyme en téléthéâtre sur les ondes de Radio-Canada, 23 avril 1958
+Déclin, téléthéâtre présenté dans le cadre d'En première sur les ondes de Radio-Canada, 14 décembre 1958
 Le Marcheur, Montréal, Leméac, coll. « Théâtre canadien » no 5, 1968 ; réédition, Montréal, Leméac, 1982 ; réédition, Montréal, SYT Éditeur, 1996
-Fredange, suivi de Les Terres neuves, Montréal, Leméac, coll. « Théâtre canadien » no 15, 1970
-Novélisations
-Le Drame d'Aurore l'enfant martyre (sous le pseudonyme de Benoît Tessier), Québec, Diffusion du livre, 1952 ; réédition, Montréal, Éditions Le dernier havre, 2005 - Novélisation du film La Petite Aurore, l'enfant martyre de Jean-Yves Bigras
-Valérie, Montréal, Les Éditions de l'Homme, 1969 - Novélisation du film Valérie de Denis Héroux
-Autres publications
-Roi de la Côte Nord : la vie extraordinaire de Napoléon-Alexandre Comeau. Naturaliste, médecin, franc-tireur, trappeur, photographe, pêcheur, cartographe, interprète, conseiller, navigateur, portageur, sage-homme, écrivain, chirurgien, sauveteur, télégraphiste, garde-chasse, visionnaire, autodidacte, Montréal, Les Éditions de l'Homme, 1960
+Fredange, suivi de Les Terres neuves, Montréal, Leméac, coll. « Théâtre canadien » no 15, 1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yves_Thériault</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Novélisations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Drame d'Aurore l'enfant martyre (sous le pseudonyme de Benoît Tessier), Québec, Diffusion du livre, 1952 ; réédition, Montréal, Éditions Le dernier havre, 2005 - Novélisation du film La Petite Aurore, l'enfant martyre de Jean-Yves Bigras
+Valérie, Montréal, Les Éditions de l'Homme, 1969 - Novélisation du film Valérie de Denis Héroux</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yves_Thériault</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Roi de la Côte Nord : la vie extraordinaire de Napoléon-Alexandre Comeau. Naturaliste, médecin, franc-tireur, trappeur, photographe, pêcheur, cartographe, interprète, conseiller, navigateur, portageur, sage-homme, écrivain, chirurgien, sauveteur, télégraphiste, garde-chasse, visionnaire, autodidacte, Montréal, Les Éditions de l'Homme, 1960
 Séjour à Moscou, Montréal et Paris, Fides, 1961
 Si la bombe m'était contée, Éditions du Jour, Montréal, 1962
 La Mort d'eau, Montréal, Les Éditions de l'Homme, 1968
@@ -645,68 +868,109 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Yves_Th%C3%A9riault</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Yves_Th%C3%A9riault</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yves_Thériault</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Scénario
-1970 : L'Initiation, film québécois réalisé par Denis Héroux, scénario original d'Yves Thériault
-Adaptation
-1992 : Agaguk (Shadow of the Wolf), film français (tourné en anglais),  réalisé par Jacques Dorfmann, d'après le roman éponyme d'Yves Thériault</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yves_Th%C3%A9riault</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Yves_Th%C3%A9riault</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Scénario</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1970 : L'Initiation, film québécois réalisé par Denis Héroux, scénario original d'Yves Thériault</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yves_Thériault</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1992 : Agaguk (Shadow of the Wolf), film français (tourné en anglais),  réalisé par Jacques Dorfmann, d'après le roman éponyme d'Yves Thériault</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Yves_Thériault</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1945 - trophée Laflèche du meilleur scripteur (Radio-Canada)
-1950 - boursier du gouvernement français. Il refuse la bourse, qu'il considère insuffisante pour un séjour d'un an à l'étranger avec sa famille[4],[7].
-1954 - 2e prix de la province de Québec pour Aaron, ex-aequo avec [[Adrienne Choquette]] et [[Jean Filiatrault]][8]
+1950 - boursier du gouvernement français. Il refuse la bourse, qu'il considère insuffisante pour un séjour d'un an à l'étranger avec sa famille,.
+1954 - 2e prix de la province de Québec pour Aaron, ex-aequo avec [[Adrienne Choquette]] et [[Jean Filiatrault]]
 1958 - prix de la province de Québec pour Agaguk, ex-aequo avec [[Anne Hébert]]
 1959 - élu membre de la Société royale du Canada
 1961 - prix France-Canada (prix Québec-Paris) pour Ashini
